--- a/datasets/thstat.xlsx
+++ b/datasets/thstat.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,7 +694,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -728,7 +728,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -745,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>2</v>
@@ -1720,6 +1720,23 @@
         <v>42</v>
       </c>
       <c r="E79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>43909</v>
+      </c>
+      <c r="B80" t="n">
+        <v>272</v>
+      </c>
+      <c r="C80" t="n">
+        <v>229</v>
+      </c>
+      <c r="D80" t="n">
+        <v>42</v>
+      </c>
+      <c r="E80" t="n">
         <v>1</v>
       </c>
     </row>

--- a/datasets/thstat.xlsx
+++ b/datasets/thstat.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1740,6 +1740,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>43910</v>
+      </c>
+      <c r="B81" t="n">
+        <v>322</v>
+      </c>
+      <c r="C81" t="n">
+        <v>278</v>
+      </c>
+      <c r="D81" t="n">
+        <v>43</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datasets/thstat.xlsx
+++ b/datasets/thstat.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -378,20 +378,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CumCase</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>CurrentlyInfectedPatients</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Recovered</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Deaths</t>
         </is>
@@ -410,9 +405,6 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -427,9 +419,6 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -444,9 +433,6 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -461,9 +447,6 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -478,9 +461,6 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -495,9 +475,6 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -512,9 +489,6 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -529,9 +503,6 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -546,9 +517,6 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -563,9 +531,6 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -580,9 +545,6 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -592,12 +554,9 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -609,12 +568,9 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -626,12 +582,9 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -643,12 +596,9 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -660,12 +610,9 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -677,12 +624,9 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -691,15 +635,12 @@
         <v>43848</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -708,15 +649,12 @@
         <v>43849</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -725,15 +663,12 @@
         <v>43850</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -742,15 +677,12 @@
         <v>43851</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -759,15 +691,12 @@
         <v>43852</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -776,15 +705,12 @@
         <v>43853</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -793,15 +719,12 @@
         <v>43854</v>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,15 +733,12 @@
         <v>43855</v>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
         <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -827,15 +747,12 @@
         <v>43856</v>
       </c>
       <c r="B27" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
-      </c>
-      <c r="E27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -844,15 +761,12 @@
         <v>43857</v>
       </c>
       <c r="B28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
-      </c>
-      <c r="E28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -861,15 +775,12 @@
         <v>43858</v>
       </c>
       <c r="B29" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
-      </c>
-      <c r="E29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -878,15 +789,12 @@
         <v>43859</v>
       </c>
       <c r="B30" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
-      </c>
-      <c r="E30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -895,15 +803,12 @@
         <v>43860</v>
       </c>
       <c r="B31" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C31" t="n">
         <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
-      </c>
-      <c r="E31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -912,15 +817,12 @@
         <v>43861</v>
       </c>
       <c r="B32" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C32" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
-      </c>
-      <c r="E32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -929,15 +831,12 @@
         <v>43862</v>
       </c>
       <c r="B33" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C33" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
-      </c>
-      <c r="E33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -946,15 +845,12 @@
         <v>43863</v>
       </c>
       <c r="B34" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>9</v>
-      </c>
-      <c r="E34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -963,15 +859,12 @@
         <v>43864</v>
       </c>
       <c r="B35" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
-        <v>9</v>
-      </c>
-      <c r="E35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,15 +873,12 @@
         <v>43865</v>
       </c>
       <c r="B36" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
-      </c>
-      <c r="E36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -997,15 +887,12 @@
         <v>43866</v>
       </c>
       <c r="B37" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
-      </c>
-      <c r="E37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1014,15 +901,12 @@
         <v>43867</v>
       </c>
       <c r="B38" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
-      </c>
-      <c r="E38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1031,15 +915,12 @@
         <v>43868</v>
       </c>
       <c r="B39" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
-      </c>
-      <c r="E39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1048,15 +929,12 @@
         <v>43869</v>
       </c>
       <c r="B40" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C40" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
-      </c>
-      <c r="E40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1065,15 +943,12 @@
         <v>43870</v>
       </c>
       <c r="B41" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C41" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D41" t="n">
-        <v>11</v>
-      </c>
-      <c r="E41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1082,15 +957,12 @@
         <v>43871</v>
       </c>
       <c r="B42" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C42" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>11</v>
-      </c>
-      <c r="E42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1099,15 +971,12 @@
         <v>43872</v>
       </c>
       <c r="B43" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C43" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>11</v>
-      </c>
-      <c r="E43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1116,15 +985,12 @@
         <v>43873</v>
       </c>
       <c r="B44" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C44" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>11</v>
-      </c>
-      <c r="E44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1133,15 +999,12 @@
         <v>43874</v>
       </c>
       <c r="B45" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C45" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>11</v>
-      </c>
-      <c r="E45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1150,15 +1013,12 @@
         <v>43875</v>
       </c>
       <c r="B46" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C46" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D46" t="n">
-        <v>11</v>
-      </c>
-      <c r="E46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1167,15 +1027,12 @@
         <v>43876</v>
       </c>
       <c r="B47" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C47" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D47" t="n">
-        <v>13</v>
-      </c>
-      <c r="E47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1184,15 +1041,12 @@
         <v>43877</v>
       </c>
       <c r="B48" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C48" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D48" t="n">
-        <v>15</v>
-      </c>
-      <c r="E48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1201,15 +1055,12 @@
         <v>43878</v>
       </c>
       <c r="B49" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D49" t="n">
-        <v>15</v>
-      </c>
-      <c r="E49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1218,15 +1069,12 @@
         <v>43879</v>
       </c>
       <c r="B50" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C50" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D50" t="n">
-        <v>15</v>
-      </c>
-      <c r="E50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1235,15 +1083,12 @@
         <v>43880</v>
       </c>
       <c r="B51" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C51" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D51" t="n">
-        <v>15</v>
-      </c>
-      <c r="E51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,15 +1097,12 @@
         <v>43881</v>
       </c>
       <c r="B52" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C52" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>17</v>
-      </c>
-      <c r="E52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1269,15 +1111,12 @@
         <v>43882</v>
       </c>
       <c r="B53" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C53" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D53" t="n">
-        <v>19</v>
-      </c>
-      <c r="E53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1286,15 +1125,12 @@
         <v>43883</v>
       </c>
       <c r="B54" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C54" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D54" t="n">
-        <v>20</v>
-      </c>
-      <c r="E54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1303,15 +1139,12 @@
         <v>43884</v>
       </c>
       <c r="B55" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C55" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D55" t="n">
-        <v>21</v>
-      </c>
-      <c r="E55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1320,15 +1153,12 @@
         <v>43885</v>
       </c>
       <c r="B56" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C56" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D56" t="n">
-        <v>21</v>
-      </c>
-      <c r="E56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1337,15 +1167,12 @@
         <v>43886</v>
       </c>
       <c r="B57" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C57" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D57" t="n">
-        <v>22</v>
-      </c>
-      <c r="E57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1354,15 +1181,12 @@
         <v>43887</v>
       </c>
       <c r="B58" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C58" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D58" t="n">
-        <v>24</v>
-      </c>
-      <c r="E58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1371,15 +1195,12 @@
         <v>43888</v>
       </c>
       <c r="B59" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C59" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D59" t="n">
-        <v>24</v>
-      </c>
-      <c r="E59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1388,15 +1209,12 @@
         <v>43889</v>
       </c>
       <c r="B60" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C60" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D60" t="n">
-        <v>28</v>
-      </c>
-      <c r="E60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1405,15 +1223,12 @@
         <v>43890</v>
       </c>
       <c r="B61" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C61" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D61" t="n">
-        <v>28</v>
-      </c>
-      <c r="E61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,15 +1237,12 @@
         <v>43891</v>
       </c>
       <c r="B62" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C62" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>30</v>
-      </c>
-      <c r="E62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1439,15 +1251,12 @@
         <v>43892</v>
       </c>
       <c r="B63" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C63" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D63" t="n">
-        <v>31</v>
-      </c>
-      <c r="E63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1456,15 +1265,12 @@
         <v>43893</v>
       </c>
       <c r="B64" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C64" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D64" t="n">
-        <v>31</v>
-      </c>
-      <c r="E64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1473,15 +1279,12 @@
         <v>43894</v>
       </c>
       <c r="B65" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C65" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D65" t="n">
-        <v>31</v>
-      </c>
-      <c r="E65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1490,15 +1293,12 @@
         <v>43895</v>
       </c>
       <c r="B66" t="n">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C66" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D66" t="n">
-        <v>31</v>
-      </c>
-      <c r="E66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1507,15 +1307,12 @@
         <v>43896</v>
       </c>
       <c r="B67" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C67" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D67" t="n">
-        <v>31</v>
-      </c>
-      <c r="E67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1524,15 +1321,12 @@
         <v>43897</v>
       </c>
       <c r="B68" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C68" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D68" t="n">
-        <v>31</v>
-      </c>
-      <c r="E68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1541,15 +1335,12 @@
         <v>43898</v>
       </c>
       <c r="B69" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C69" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D69" t="n">
-        <v>33</v>
-      </c>
-      <c r="E69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1558,15 +1349,12 @@
         <v>43899</v>
       </c>
       <c r="B70" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C70" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D70" t="n">
-        <v>33</v>
-      </c>
-      <c r="E70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1575,15 +1363,12 @@
         <v>43900</v>
       </c>
       <c r="B71" t="n">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C71" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D71" t="n">
-        <v>33</v>
-      </c>
-      <c r="E71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1592,15 +1377,12 @@
         <v>43901</v>
       </c>
       <c r="B72" t="n">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C72" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D72" t="n">
-        <v>34</v>
-      </c>
-      <c r="E72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1609,15 +1391,12 @@
         <v>43902</v>
       </c>
       <c r="B73" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C73" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D73" t="n">
-        <v>35</v>
-      </c>
-      <c r="E73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,15 +1405,12 @@
         <v>43903</v>
       </c>
       <c r="B74" t="n">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="C74" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D74" t="n">
-        <v>35</v>
-      </c>
-      <c r="E74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1643,15 +1419,12 @@
         <v>43904</v>
       </c>
       <c r="B75" t="n">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="C75" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D75" t="n">
-        <v>35</v>
-      </c>
-      <c r="E75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1660,15 +1433,12 @@
         <v>43905</v>
       </c>
       <c r="B76" t="n">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="C76" t="n">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D76" t="n">
-        <v>37</v>
-      </c>
-      <c r="E76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1677,15 +1447,12 @@
         <v>43906</v>
       </c>
       <c r="B77" t="n">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="C77" t="n">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="D77" t="n">
-        <v>38</v>
-      </c>
-      <c r="E77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1694,15 +1461,12 @@
         <v>43907</v>
       </c>
       <c r="B78" t="n">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C78" t="n">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="D78" t="n">
-        <v>41</v>
-      </c>
-      <c r="E78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1711,15 +1475,12 @@
         <v>43908</v>
       </c>
       <c r="B79" t="n">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="C79" t="n">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c r="D79" t="n">
-        <v>42</v>
-      </c>
-      <c r="E79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1728,15 +1489,12 @@
         <v>43909</v>
       </c>
       <c r="B80" t="n">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="C80" t="n">
-        <v>229</v>
+        <v>42</v>
       </c>
       <c r="D80" t="n">
-        <v>42</v>
-      </c>
-      <c r="E80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1745,15 +1503,54 @@
         <v>43910</v>
       </c>
       <c r="B81" t="n">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="C81" t="n">
-        <v>278</v>
+        <v>43</v>
       </c>
       <c r="D81" t="n">
-        <v>43</v>
-      </c>
-      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>43911</v>
+      </c>
+      <c r="B82" t="n">
+        <v>366</v>
+      </c>
+      <c r="C82" t="n">
+        <v>44</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>43912</v>
+      </c>
+      <c r="B83" t="n">
+        <v>553</v>
+      </c>
+      <c r="C83" t="n">
+        <v>45</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>43913</v>
+      </c>
+      <c r="B84" t="n">
+        <v>668</v>
+      </c>
+      <c r="C84" t="n">
+        <v>52</v>
+      </c>
+      <c r="D84" t="n">
         <v>1</v>
       </c>
     </row>

--- a/datasets/thstat.xlsx
+++ b/datasets/thstat.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1554,6 +1554,48 @@
         <v>1</v>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>43914</v>
+      </c>
+      <c r="B85" t="n">
+        <v>766</v>
+      </c>
+      <c r="C85" t="n">
+        <v>57</v>
+      </c>
+      <c r="D85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>43915</v>
+      </c>
+      <c r="B86" t="n">
+        <v>860</v>
+      </c>
+      <c r="C86" t="n">
+        <v>70</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>43916</v>
+      </c>
+      <c r="B87" t="n">
+        <v>953</v>
+      </c>
+      <c r="C87" t="n">
+        <v>88</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datasets/thstat.xlsx
+++ b/datasets/thstat.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1596,6 +1596,34 @@
         <v>4</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>43917</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1034</v>
+      </c>
+      <c r="C88" t="n">
+        <v>97</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>43918</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1139</v>
+      </c>
+      <c r="C89" t="n">
+        <v>100</v>
+      </c>
+      <c r="D89" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
